--- a/sputnik/personal/uch/uch137.xlsx
+++ b/sputnik/personal/uch/uch137.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2019/2020(с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C3:C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -603,9 +606,15 @@
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="11">
+        <v>43952</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8">
+        <v>11437.5</v>
+      </c>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/uch/uch137.xlsx
+++ b/sputnik/personal/uch/uch137.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -618,9 +621,15 @@
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="11">
+        <v>44317</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8">
+        <v>12196.95</v>
+      </c>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
